--- a/static/output/Excel/compareLR1-sol2.xlsx
+++ b/static/output/Excel/compareLR1-sol2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Documents\GitHub\ACTL20004-ACTL90021-Tutorials\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EC1E43-D9C5-4588-880E-AC275BE006A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738413A-AB13-C64C-9A61-29A42B768D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16780" yWindow="1120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -558,7 +558,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -576,7 +576,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1300,7 +1300,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1916,7 +1916,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2631,7 +2631,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3219,7 +3219,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3398,19 +3398,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.6208951036593715E-2</c:v>
+                  <c:v>9.6139763573595563E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10443429238371953</c:v>
+                  <c:v>0.104359189769439</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6149946135334272E-2</c:v>
+                  <c:v>9.6080801104972371E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10048064007652545</c:v>
+                  <c:v>0.10040838068181818</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9451961696485541E-2</c:v>
+                  <c:v>9.9380442062960483E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>9.8839907192575405E-2</c:v>
@@ -3557,52 +3557,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.6208951036593715E-2</c:v>
+                  <c:v>9.6207858969528798E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10443429238371953</c:v>
+                  <c:v>0.1044331069508681</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6149946135334272E-2</c:v>
+                  <c:v>9.6148854738033543E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10048064007652545</c:v>
+                  <c:v>0.10047949952155101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9451961696485541E-2</c:v>
+                  <c:v>9.9450832818031534E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.8911037827470211E-2</c:v>
+                  <c:v>9.8909915089038875E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10055771319602741</c:v>
+                  <c:v>0.10055621552339387</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6907347038765981E-2</c:v>
+                  <c:v>9.6906535968075219E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1053900101154128</c:v>
+                  <c:v>0.10539426414346784</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5643318976463942E-2</c:v>
+                  <c:v>9.5665245850726374E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.8201917634684444E-2</c:v>
+                  <c:v>9.828382388171833E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.7877219508335264E-2</c:v>
+                  <c:v>9.7958854937796644E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.276640735104788E-2</c:v>
+                  <c:v>9.2843780058831524E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.0491754774090785E-2</c:v>
+                  <c:v>9.0567230286174236E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.5497135947691826E-2</c:v>
+                  <c:v>6.5551764459294851E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1464744730607017E-2</c:v>
+                  <c:v>4.1499328796854446E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7091,9 +7091,9 @@
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>9559</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10713</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11584</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>11264</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11944</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12930</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>13786</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14626</v>
       </c>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13716</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>15626</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14623</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>16471</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>15906</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>17055</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16893</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>17743</v>
       </c>
@@ -7954,12 +7954,12 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="18" width="6.7109375" customWidth="1"/>
+    <col min="3" max="18" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
@@ -7981,7 +7981,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="15"/>
       <c r="C3" s="1"/>
@@ -8056,7 +8056,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>0</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -8266,7 +8266,7 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -8330,7 +8330,7 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -8391,7 +8391,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -8449,7 +8449,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -8504,7 +8504,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -8556,7 +8556,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -8605,7 +8605,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -8651,7 +8651,7 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -8694,7 +8694,7 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -8734,7 +8734,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -8771,7 +8771,7 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -8805,7 +8805,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -8836,7 +8836,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>15</v>
       </c>
@@ -8864,7 +8864,7 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -8879,7 +8879,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -8899,7 +8899,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -8916,7 +8916,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -8931,7 +8931,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -9016,7 +9016,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -9071,7 +9071,7 @@
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -9086,7 +9086,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -9164,7 +9164,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -9180,7 +9180,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -9268,7 +9268,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -9284,7 +9284,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
@@ -9345,7 +9345,7 @@
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
     </row>
-    <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -9363,7 +9363,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -9379,7 +9379,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -9395,7 +9395,7 @@
       <c r="M37" s="6"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
@@ -9413,7 +9413,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -9437,7 +9437,7 @@
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
     </row>
-    <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -9485,7 +9485,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>-3.1262673667024456</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -9561,7 +9561,7 @@
         <v>4.3881284687978139E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -9577,7 +9577,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
@@ -9595,7 +9595,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -9616,7 +9616,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -9637,7 +9637,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -9658,7 +9658,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -9688,12 +9688,12 @@
       <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>35</v>
       </c>
@@ -9720,7 +9720,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="1"/>
@@ -9803,7 +9803,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <f>Exposure!A4</f>
         <v>0</v>
@@ -9885,7 +9885,7 @@
         <v>9.6176164030018718E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <f>Exposure!A5</f>
         <v>1</v>
@@ -9967,7 +9967,7 @@
         <v>0.10439559022586216</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <f>Exposure!A6</f>
         <v>2</v>
@@ -10049,7 +10049,7 @@
         <v>9.611720156139554E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <f>Exposure!A7</f>
         <v>3</v>
@@ -10131,7 +10131,7 @@
         <v>0.10044478113824135</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <f>Exposure!A8</f>
         <v>4</v>
@@ -10213,7 +10213,7 @@
         <v>9.9416842519383652E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <f>Exposure!A9</f>
         <v>5</v>
@@ -10295,7 +10295,7 @@
         <v>9.8920188933686551E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <f>Exposure!A10</f>
         <v>6</v>
@@ -10377,7 +10377,7 @@
         <v>0.10056876428519083</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <f>Exposure!A11</f>
         <v>7</v>
@@ -10459,7 +10459,7 @@
         <v>9.6930921566761058E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <f>Exposure!A12</f>
         <v>8</v>
@@ -10541,7 +10541,7 @@
         <v>0.10533780829036835</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <f>Exposure!A13</f>
         <v>9</v>
@@ -10623,7 +10623,7 @@
         <v>9.5541034361471086E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <f>Exposure!A14</f>
         <v>10</v>
@@ -10705,7 +10705,7 @@
         <v>9.8272857371702924E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <f>Exposure!A15</f>
         <v>11</v>
@@ -10787,7 +10787,7 @@
         <v>9.8038966809353992E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <f>Exposure!A16</f>
         <v>12</v>
@@ -10869,7 +10869,7 @@
         <v>9.3906771208181555E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <f>Exposure!A17</f>
         <v>13</v>
@@ -10951,7 +10951,7 @@
         <v>9.3292471293941748E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <f>Exposure!A18</f>
         <v>14</v>
@@ -11033,7 +11033,7 @@
         <v>8.7440062999832882E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <f>Exposure!A19</f>
         <v>15</v>
@@ -11115,7 +11115,7 @@
         <v>9.007745094905252E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -11136,7 +11136,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -11160,8 +11160,8 @@
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="U23" s="35" t="s">
         <v>39</v>
       </c>
@@ -11173,7 +11173,7 @@
       <c r="AA23" s="34"/>
       <c r="AB23" s="34"/>
     </row>
-    <row r="24" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -11190,7 +11190,7 @@
       <c r="AA24" s="34"/>
       <c r="AB24" s="34"/>
     </row>
-    <row r="25" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -11220,7 +11220,7 @@
       <c r="AA25" s="34"/>
       <c r="AB25" s="34"/>
     </row>
-    <row r="26" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -11248,7 +11248,7 @@
       <c r="AA26" s="34"/>
       <c r="AB26" s="34"/>
     </row>
-    <row r="27" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -11268,7 +11268,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="23"/>
     </row>
-    <row r="28" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -11288,7 +11288,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="23"/>
     </row>
-    <row r="29" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -11308,7 +11308,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="23"/>
     </row>
-    <row r="30" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -11328,7 +11328,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="23"/>
     </row>
-    <row r="31" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -11348,7 +11348,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="23"/>
     </row>
-    <row r="32" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -11368,7 +11368,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="23"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -11388,7 +11388,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="23"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -11408,7 +11408,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="23"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -11428,7 +11428,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="23"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -11448,7 +11448,7 @@
       <c r="S36" s="21"/>
       <c r="T36" s="23"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -11468,7 +11468,7 @@
       <c r="S37" s="21"/>
       <c r="T37" s="23"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -11488,7 +11488,7 @@
       <c r="S38" s="21"/>
       <c r="T38" s="23"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -11508,7 +11508,7 @@
       <c r="S39" s="21"/>
       <c r="T39" s="23"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -11528,13 +11528,13 @@
       <c r="S40" s="21"/>
       <c r="T40" s="23"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="P41" s="1"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="20"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="21"/>
@@ -11569,9 +11569,9 @@
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>36</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="24">
         <v>156</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>0.99962152309992525</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C3" s="24">
         <v>158</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>0.99965132189640948</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="24">
         <v>137</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>0.99962129092574636</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C5" s="24">
         <v>123</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>0.99963760729018802</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="24">
         <v>114</v>
       </c>
@@ -11893,7 +11893,7 @@
         <v>0.99963386026451129</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="24">
         <v>100</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>0.9991884190479563</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="24">
         <v>96</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>0.99896065937763134</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="24">
         <v>67</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>0.99667657467152559</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C10" s="24">
         <v>63</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>0.99736064285712589</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="24">
         <v>60</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>1.0060792082075074</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="24">
         <v>37</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>1.011103352943588</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="24">
         <v>31</v>
       </c>
@@ -12330,7 +12330,7 @@
       <c r="AA13" s="34"/>
       <c r="AB13" s="34"/>
     </row>
-    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="24">
         <v>30</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>1.0604673226374077</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="24">
         <v>38</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>1.0728405985969514</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="24">
         <v>18</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>1.1007870135097544</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="24">
         <v>16</v>
       </c>
@@ -12574,13 +12574,13 @@
         <v>1.1143478489815077</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="P18" s="1"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="20"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>43</v>
       </c>
@@ -12602,37 +12602,37 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O20">
         <f>IF(IBNR!O4&gt;0,O2/IBNR!O4,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O21">
         <f>IF(IBNR!O5&gt;0,O3/IBNR!O5,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O22">
         <f>IF(IBNR!O6&gt;0,O4/IBNR!O6,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O23">
         <f>IF(IBNR!O7&gt;0,O5/IBNR!O7,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O24">
         <f>IF(IBNR!O8&gt;0,O6/IBNR!O8,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M25">
         <f>IF(IBNR!M9&gt;0,M7/IBNR!M9,"")</f>
         <v>1</v>
@@ -12646,7 +12646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L26">
         <f>IF(IBNR!L10&gt;0,L8/IBNR!L10,"")</f>
         <v>1</v>
@@ -12664,7 +12664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K27">
         <f>IF(IBNR!K11&gt;0,K9/IBNR!K11,"")</f>
         <v>1</v>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="J28">
         <f>IF(IBNR!J12&gt;0,J10/IBNR!J12,"")</f>
         <v>1</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I29">
         <f>IF(IBNR!I13&gt;0,I11/IBNR!I13,"")</f>
         <v>1</v>
@@ -12742,7 +12742,7 @@
         <v>1.7581071928926606</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H30">
         <f>IF(IBNR!H14&gt;0,H12/IBNR!H14,"")</f>
         <v>1</v>
@@ -12776,7 +12776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G31">
         <f>IF(IBNR!G15&gt;0,G13/IBNR!G15,"")</f>
         <v>1</v>
@@ -12814,7 +12814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F32">
         <f>IF(IBNR!F16&gt;0,F14/IBNR!F16,"")</f>
         <v>1</v>
@@ -12856,7 +12856,7 @@
         <v>1.7271584934075637</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E33">
         <f>IF(IBNR!E17&gt;0,E15/IBNR!E17,"")</f>
         <v>1</v>
@@ -12902,7 +12902,7 @@
         <v>1.610799354801566</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D34">
         <f>IF(IBNR!D18&gt;0,D16/IBNR!D18,"")</f>
         <v>1</v>
@@ -12952,7 +12952,7 @@
         <v>1.6262465515977453</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35">
         <f>IF(IBNR!C19&gt;0,C17/IBNR!C19,"")</f>
         <v>1</v>
@@ -13006,7 +13006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C36" t="str">
         <f t="shared" ref="C36" si="2">IF(C18&gt;0,#REF!/C18,"")</f>
         <v/>
@@ -13081,19 +13081,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F362D8A6-62D3-48D4-9831-B8CD7774BB76}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53:I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="37"/>
-    <col min="2" max="2" width="16.85546875" style="37" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="37" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="37"/>
+    <col min="1" max="1" width="11.5" style="37"/>
+    <col min="2" max="2" width="16.83203125" style="37" customWidth="1"/>
+    <col min="3" max="18" width="9.1640625" style="37" customWidth="1"/>
+    <col min="19" max="16384" width="11.5" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>25</v>
       </c>
@@ -13113,7 +13113,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>22</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="15"/>
       <c r="C3" s="1"/>
@@ -13183,7 +13183,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>0</v>
       </c>
@@ -13250,7 +13250,7 @@
       </c>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -13314,7 +13314,7 @@
       <c r="Q5" s="42"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -13375,7 +13375,7 @@
       <c r="Q6" s="42"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -13433,7 +13433,7 @@
       <c r="Q7" s="42"/>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -13488,7 +13488,7 @@
       <c r="Q8" s="42"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -13540,7 +13540,7 @@
       <c r="Q9" s="42"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -13589,7 +13589,7 @@
       <c r="Q10" s="42"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -13635,7 +13635,7 @@
       <c r="Q11" s="42"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -13678,7 +13678,7 @@
       <c r="Q12" s="42"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -13718,7 +13718,7 @@
       <c r="Q13" s="42"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -13755,7 +13755,7 @@
       <c r="Q14" s="42"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -13789,7 +13789,7 @@
       <c r="Q15" s="42"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -13820,7 +13820,7 @@
       <c r="Q16" s="42"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -13848,7 +13848,7 @@
       <c r="Q17" s="42"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -13873,7 +13873,7 @@
       <c r="Q18" s="42"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>15</v>
       </c>
@@ -13895,7 +13895,7 @@
       <c r="Q19" s="42"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -13910,7 +13910,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -13930,7 +13930,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -13947,7 +13947,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -13962,7 +13962,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -14031,7 +14031,7 @@
       </c>
       <c r="R24" s="61"/>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="54"/>
@@ -14051,7 +14051,7 @@
       <c r="Q25" s="55"/>
       <c r="R25" s="55"/>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>56</v>
       </c>
@@ -14117,10 +14117,10 @@
       </c>
       <c r="R26" s="60"/>
     </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="37" t="s">
         <v>55</v>
       </c>
@@ -14186,7 +14186,7 @@
       </c>
       <c r="R28" s="60"/>
     </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -14236,13 +14236,13 @@
       <c r="M30" s="54"/>
       <c r="N30" s="54"/>
     </row>
-    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O31" s="54"/>
       <c r="P31" s="54"/>
       <c r="Q31" s="54"/>
       <c r="R31" s="54"/>
     </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>56</v>
@@ -14294,7 +14294,7 @@
       <c r="Q32" s="55"/>
       <c r="R32" s="55"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B34" s="37" t="s">
         <v>55</v>
       </c>
@@ -14339,7 +14339,7 @@
         <v>1.0005932957579353</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="54"/>
@@ -14416,7 +14416,7 @@
       <c r="N37" s="54"/>
       <c r="O37" s="55"/>
     </row>
-    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="37" t="s">
         <v>56</v>
       </c>
@@ -14473,12 +14473,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="P39" s="54"/>
       <c r="Q39" s="55"/>
       <c r="R39" s="55"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B40" s="37" t="s">
         <v>55</v>
       </c>
@@ -14538,15 +14538,15 @@
       <c r="Q40" s="55"/>
       <c r="R40" s="55"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R41" s="55"/>
     </row>
-    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="P42" s="55"/>
       <c r="Q42" s="55"/>
       <c r="R42" s="54"/>
     </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="56"/>
@@ -14565,7 +14565,7 @@
       <c r="P43" s="54"/>
       <c r="Q43" s="54"/>
     </row>
-    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>14</v>
       </c>
@@ -14623,12 +14623,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="44" t="s">
         <v>14</v>
       </c>
@@ -14655,32 +14655,32 @@
       </c>
       <c r="H47" s="51">
         <f>H56</f>
-        <v>1.0259767128291359</v>
+        <v>1.0265970842150682</v>
       </c>
       <c r="I47" s="51">
         <f>I56</f>
-        <v>1.0113095338666644</v>
+        <v>1.0115005545414997</v>
       </c>
       <c r="J47" s="51">
         <f>J56</f>
-        <v>1.004923854574</v>
+        <v>1.0049728291151208</v>
       </c>
       <c r="K47" s="51">
         <f>K56</f>
-        <v>1.0021437084986644</v>
+        <v>1.0021502466962753</v>
       </c>
       <c r="L47" s="51">
         <f>L56</f>
-        <v>1.000933310693519</v>
+        <v>1.0009297646767679</v>
       </c>
       <c r="M47" s="50">
         <f>B63</f>
-        <v>1.0007196550150155</v>
+        <v>1.0007082958538909</v>
       </c>
       <c r="N47" s="49"/>
       <c r="O47" s="49"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="44" t="s">
         <v>13</v>
       </c>
@@ -14699,7 +14699,7 @@
       <c r="N48" s="14"/>
       <c r="O48" s="39"/>
     </row>
-    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -14716,7 +14716,7 @@
       <c r="N49" s="14"/>
       <c r="O49" s="39"/>
     </row>
-    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="45"/>
       <c r="B50" s="45"/>
       <c r="C50" s="45"/>
@@ -14733,7 +14733,7 @@
       <c r="N50" s="14"/>
       <c r="O50" s="39"/>
     </row>
-    <row r="51" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="44" t="s">
         <v>12</v>
       </c>
@@ -14752,7 +14752,7 @@
       <c r="N51" s="14"/>
       <c r="O51" s="39"/>
     </row>
-    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -14771,7 +14771,7 @@
       <c r="N52" s="14"/>
       <c r="O52" s="39"/>
     </row>
-    <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
         <v>9</v>
       </c>
@@ -14784,9 +14784,12 @@
         <f>LN(G44-1)</f>
         <v>-2.7647136656643529</v>
       </c>
-      <c r="H53" s="48"/>
+      <c r="H53" s="48">
+        <f t="shared" ref="H53:I53" si="1">LN(H44-1)</f>
+        <v>-3.5706155336201983</v>
+      </c>
       <c r="I53" s="48">
-        <f>LN(I44-1)</f>
+        <f t="shared" si="1"/>
         <v>-4.6725891699910251</v>
       </c>
       <c r="J53" s="48">
@@ -14805,7 +14808,7 @@
       <c r="N53" s="14"/>
       <c r="O53" s="39"/>
     </row>
-    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -14824,13 +14827,13 @@
       <c r="N54" s="14"/>
       <c r="O54" s="39"/>
     </row>
-    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="14">
         <f>SLOPE(G53:L53,G2:L2)</f>
-        <v>-0.83155440124634517</v>
+        <v>-0.83840633859792457</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -14839,40 +14842,40 @@
         <v>6</v>
       </c>
       <c r="G55" s="14">
-        <f t="shared" ref="G55:L55" si="1">_xlfn.FORECAST.LINEAR(G2,$G$53:$L$53,$G$2:$L$2)</f>
-        <v>-2.8190004014756145</v>
+        <f t="shared" ref="G55:L55" si="2">_xlfn.FORECAST.LINEAR(G2,$G$53:$L$53,$G$2:$L$2)</f>
+        <v>-2.7885473465797048</v>
       </c>
       <c r="H55" s="14">
-        <f t="shared" si="1"/>
-        <v>-3.6505548027219596</v>
+        <f t="shared" si="2"/>
+        <v>-3.6269536851776296</v>
       </c>
       <c r="I55" s="14">
-        <f t="shared" si="1"/>
-        <v>-4.4821092039683048</v>
+        <f t="shared" si="2"/>
+        <v>-4.4653600237755535</v>
       </c>
       <c r="J55" s="14">
-        <f t="shared" si="1"/>
-        <v>-5.31366360521465</v>
+        <f t="shared" si="2"/>
+        <v>-5.3037663623734783</v>
       </c>
       <c r="K55" s="14">
-        <f t="shared" si="1"/>
-        <v>-6.1452180064609951</v>
+        <f t="shared" si="2"/>
+        <v>-6.1421727009714031</v>
       </c>
       <c r="L55" s="14">
-        <f t="shared" si="1"/>
-        <v>-6.9767724077073403</v>
+        <f t="shared" si="2"/>
+        <v>-6.9805790395693279</v>
       </c>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
       <c r="O55" s="39"/>
     </row>
-    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="14">
         <f>INTERCEPT(G53:L53,G2:L2)</f>
-        <v>0.50721720350976618</v>
+        <v>0.56507800781199347</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -14881,34 +14884,34 @@
         <v>4</v>
       </c>
       <c r="G56" s="47">
-        <f t="shared" ref="G56:L56" si="2">EXP(G55)+1</f>
-        <v>1.0596655545102864</v>
+        <f t="shared" ref="G56:L56" si="3">EXP(G55)+1</f>
+        <v>1.0615105024884468</v>
       </c>
       <c r="H56" s="47">
-        <f t="shared" si="2"/>
-        <v>1.0259767128291359</v>
+        <f t="shared" si="3"/>
+        <v>1.0265970842150682</v>
       </c>
       <c r="I56" s="47">
-        <f t="shared" si="2"/>
-        <v>1.0113095338666644</v>
+        <f t="shared" si="3"/>
+        <v>1.0115005545414997</v>
       </c>
       <c r="J56" s="47">
-        <f t="shared" si="2"/>
-        <v>1.004923854574</v>
+        <f t="shared" si="3"/>
+        <v>1.0049728291151208</v>
       </c>
       <c r="K56" s="47">
-        <f t="shared" si="2"/>
-        <v>1.0021437084986644</v>
+        <f t="shared" si="3"/>
+        <v>1.0021502466962753</v>
       </c>
       <c r="L56" s="47">
-        <f t="shared" si="2"/>
-        <v>1.000933310693519</v>
+        <f t="shared" si="3"/>
+        <v>1.0009297646767679</v>
       </c>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
       <c r="O56" s="39"/>
     </row>
-    <row r="57" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -14925,7 +14928,7 @@
       <c r="N57" s="14"/>
       <c r="O57" s="39"/>
     </row>
-    <row r="58" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -14942,7 +14945,7 @@
       <c r="N58" s="14"/>
       <c r="O58" s="39"/>
     </row>
-    <row r="59" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="44" t="s">
         <v>3</v>
       </c>
@@ -14961,13 +14964,13 @@
       <c r="N59" s="14"/>
       <c r="O59" s="39"/>
     </row>
-    <row r="60" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="14">
         <f>EXP(B56)</f>
-        <v>1.6606634704475272</v>
+        <v>1.7595850387471135</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -14983,13 +14986,13 @@
       <c r="N60" s="14"/>
       <c r="O60" s="39"/>
     </row>
-    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B61" s="14">
         <f>EXP(B55)</f>
-        <v>0.43537201727769842</v>
+        <v>0.43239907233831953</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -15005,13 +15008,13 @@
       <c r="N61" s="14"/>
       <c r="O61" s="39"/>
     </row>
-    <row r="62" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>53</v>
       </c>
       <c r="B62" s="46">
         <f>B60*B61^(10)/(1-B61)</f>
-        <v>7.196550150154594E-4</v>
+        <v>7.0829585389088547E-4</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
@@ -15027,13 +15030,13 @@
       <c r="N62" s="14"/>
       <c r="O62" s="39"/>
     </row>
-    <row r="63" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B63" s="14">
         <f>1+B62</f>
-        <v>1.0007196550150155</v>
+        <v>1.0007082958538909</v>
       </c>
       <c r="C63" s="14" t="s">
         <v>51</v>
@@ -15051,7 +15054,7 @@
       <c r="N63" s="14"/>
       <c r="O63" s="39"/>
     </row>
-    <row r="64" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -15068,7 +15071,7 @@
       <c r="N64" s="14"/>
       <c r="O64" s="39"/>
     </row>
-    <row r="65" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="45"/>
       <c r="B65" s="45"/>
       <c r="C65" s="45"/>
@@ -15085,7 +15088,7 @@
       <c r="N65" s="45"/>
       <c r="O65" s="39"/>
     </row>
-    <row r="66" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="44" t="s">
         <v>50</v>
       </c>
@@ -15104,7 +15107,7 @@
       <c r="N66" s="14"/>
       <c r="O66" s="39"/>
     </row>
-    <row r="67" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="44">
@@ -15145,116 +15148,116 @@
       </c>
       <c r="O67" s="44"/>
     </row>
-    <row r="68" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
         <v>48</v>
       </c>
       <c r="B68" s="14"/>
       <c r="C68" s="43">
         <f>PRODUCT(C47:$M47)</f>
-        <v>45.981810359697526</v>
+        <v>46.020161927661782</v>
       </c>
       <c r="D68" s="42">
         <f>PRODUCT(D47:$M47)</f>
-        <v>3.9943794857919066</v>
+        <v>3.9977110361403168</v>
       </c>
       <c r="E68" s="42">
         <f>PRODUCT(E47:$M47)</f>
-        <v>1.8416907848115969</v>
+        <v>1.8432268645951098</v>
       </c>
       <c r="F68" s="42">
         <f>PRODUCT(F47:$M47)</f>
-        <v>1.2864363341985767</v>
+        <v>1.2875092987059933</v>
       </c>
       <c r="G68" s="42">
         <f>PRODUCT(G47:$M47)</f>
-        <v>1.1125850120923326</v>
+        <v>1.1135129742446161</v>
       </c>
       <c r="H68" s="42">
         <f>PRODUCT(H47:$M47)</f>
-        <v>1.0466520711166114</v>
+        <v>1.0475250412699466</v>
       </c>
       <c r="I68" s="42">
         <f>PRODUCT(I47:$M47)</f>
-        <v>1.0201518787209729</v>
+        <v>1.0203857554016724</v>
       </c>
       <c r="J68" s="42">
         <f>PRODUCT(J47:$M47)</f>
-        <v>1.0087434603928833</v>
+        <v>1.0087841779426414</v>
       </c>
       <c r="K68" s="42">
         <f>PRODUCT(K47:$M47)</f>
-        <v>1.0038008907854044</v>
+        <v>1.0037924894256858</v>
       </c>
       <c r="L68" s="42">
         <f>PRODUCT(L47:$M47)</f>
-        <v>1.0016536373702556</v>
+        <v>1.0016387190791245</v>
       </c>
       <c r="M68" s="42">
         <f>PRODUCT(M47:$M47)</f>
-        <v>1.0007196550150155</v>
+        <v>1.0007082958538909</v>
       </c>
       <c r="N68" s="1">
         <v>1</v>
       </c>
       <c r="O68" s="39"/>
     </row>
-    <row r="69" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
         <v>47</v>
       </c>
       <c r="B69" s="14"/>
       <c r="C69" s="41">
         <f>1/C68</f>
-        <v>2.1747730073639886E-2</v>
+        <v>2.1729606288041336E-2</v>
       </c>
       <c r="D69" s="40">
-        <f t="shared" ref="D69:N69" si="3">1/D68-1/C68</f>
-        <v>0.22860404635547044</v>
+        <f t="shared" ref="D69:N69" si="4">1/D68-1/C68</f>
+        <v>0.22841353586499263</v>
       </c>
       <c r="E69" s="40">
-        <f t="shared" si="3"/>
-        <v>0.29262753814801012</v>
+        <f t="shared" si="4"/>
+        <v>0.29238367275407401</v>
       </c>
       <c r="F69" s="40">
-        <f t="shared" si="3"/>
-        <v>0.23436191360187009</v>
+        <f t="shared" si="4"/>
+        <v>0.23416660470939232</v>
       </c>
       <c r="G69" s="40">
-        <f t="shared" si="3"/>
-        <v>0.12146649359626083</v>
+        <f t="shared" si="4"/>
+        <v>0.12136526773591161</v>
       </c>
       <c r="H69" s="40">
-        <f t="shared" si="3"/>
-        <v>5.6619614200073221E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.6572429425158832E-2</v>
       </c>
       <c r="I69" s="40">
-        <f t="shared" si="3"/>
-        <v>2.4818861535737646E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.5390404207257578E-2</v>
       </c>
       <c r="J69" s="40">
-        <f t="shared" si="3"/>
-        <v>1.1086127568420423E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.1270790953929244E-2</v>
       </c>
       <c r="K69" s="40">
-        <f t="shared" si="3"/>
-        <v>4.8811762031966133E-3</v>
+        <f t="shared" si="4"/>
+        <v>4.9295272704045212E-3</v>
       </c>
       <c r="L69" s="40">
-        <f t="shared" si="3"/>
-        <v>2.1355913491839518E-3</v>
+        <f t="shared" si="4"/>
+        <v>2.1421227185167702E-3</v>
       </c>
       <c r="M69" s="40">
-        <f t="shared" si="3"/>
-        <v>9.317698840182187E-4</v>
+        <f t="shared" si="4"/>
+        <v>9.2824354635845374E-4</v>
       </c>
       <c r="N69" s="40">
-        <f t="shared" si="3"/>
-        <v>7.1913748411855938E-4</v>
+        <f t="shared" si="4"/>
+        <v>7.0779452596270165E-4</v>
       </c>
       <c r="O69" s="39"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C70" s="38" t="s">
         <v>46</v>
       </c>
@@ -15263,7 +15266,7 @@
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C71" s="38" t="s">
         <v>45</v>
       </c>
@@ -15282,21 +15285,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFBABBA-C100-4978-A0A6-2554271191E8}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
     <col min="5" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="6.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>35</v>
       </c>
@@ -15323,7 +15326,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
@@ -15381,7 +15384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="1"/>
@@ -15402,7 +15405,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>0</v>
       </c>
@@ -15453,31 +15456,31 @@
       </c>
       <c r="N4" s="28">
         <f>SUM($C4:M4)*(CL!M$47-1)</f>
-        <v>0.66136295879922113</v>
+        <v>0.65092388972571169</v>
       </c>
       <c r="O4" s="28"/>
       <c r="P4" s="27">
-        <f>SUM(C4:N4)</f>
-        <v>919.66136295879926</v>
+        <f>SUM(C4:M4)</f>
+        <v>919</v>
       </c>
       <c r="Q4" s="26">
         <f>P4/Data!A1</f>
-        <v>9.6208951036593715E-2</v>
+        <v>9.6139763573595563E-2</v>
       </c>
       <c r="R4" s="21">
         <f t="shared" ref="R4:R19" si="0">S4-P4</f>
-        <v>0</v>
+        <v>0.6509238897257319</v>
       </c>
       <c r="S4" s="21">
         <f t="shared" ref="S4:S19" si="1">SUM(C4:O4)</f>
-        <v>919.66136295879926</v>
+        <v>919.65092388972573</v>
       </c>
       <c r="T4" s="26">
         <f>S4/Data!A1</f>
-        <v>9.6208951036593715E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.6207858969528798E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -15528,31 +15531,31 @@
       </c>
       <c r="N5" s="28">
         <f>SUM($C5:M5)*(CL!M$47-1)</f>
-        <v>0.80457430678730057</v>
+        <v>0.79187476464999529</v>
       </c>
       <c r="O5" s="28"/>
       <c r="P5" s="27">
-        <f>SUM(C5:N5)</f>
-        <v>1118.8045743067873</v>
+        <f t="shared" ref="P5:P9" si="2">SUM(C5:M5)</f>
+        <v>1118</v>
       </c>
       <c r="Q5" s="26">
         <f>P5/Data!A2</f>
-        <v>0.10443429238371953</v>
+        <v>0.104359189769439</v>
       </c>
       <c r="R5" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.79187476464994688</v>
       </c>
       <c r="S5" s="21">
         <f t="shared" si="1"/>
-        <v>1118.8045743067873</v>
+        <v>1118.7918747646499</v>
       </c>
       <c r="T5" s="26">
         <f>S5/Data!A2</f>
-        <v>0.10443429238371953</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.1044331069508681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -15603,31 +15606,31 @@
       </c>
       <c r="N6" s="28">
         <f>SUM($C6:M6)*(CL!M$47-1)</f>
-        <v>0.8009760317122232</v>
+        <v>0.78833328538054093</v>
       </c>
       <c r="O6" s="28"/>
       <c r="P6" s="27">
-        <f>SUM(C6:N6)</f>
-        <v>1113.8009760317123</v>
+        <f t="shared" si="2"/>
+        <v>1113</v>
       </c>
       <c r="Q6" s="26">
         <f>P6/Data!A3</f>
-        <v>9.6149946135334272E-2</v>
+        <v>9.6080801104972371E-2</v>
       </c>
       <c r="R6" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.78833328538053138</v>
       </c>
       <c r="S6" s="21">
         <f t="shared" si="1"/>
-        <v>1113.8009760317123</v>
+        <v>1113.7883332853805</v>
       </c>
       <c r="T6" s="26">
         <f>S6/Data!A3</f>
-        <v>9.6149946135334272E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.6148854738033543E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -15678,31 +15681,31 @@
       </c>
       <c r="N7" s="28">
         <f>SUM($C7:M7)*(CL!M$47-1)</f>
-        <v>0.81392982198250174</v>
+        <v>0.80108261075057663</v>
       </c>
       <c r="O7" s="28"/>
       <c r="P7" s="27">
-        <f>SUM(C7:N7)</f>
-        <v>1131.8139298219826</v>
+        <f t="shared" si="2"/>
+        <v>1131</v>
       </c>
       <c r="Q7" s="26">
         <f>P7/Data!A4</f>
-        <v>0.10048064007652545</v>
+        <v>0.10040838068181818</v>
       </c>
       <c r="R7" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.80108261075065457</v>
       </c>
       <c r="S7" s="21">
         <f t="shared" si="1"/>
-        <v>1131.8139298219826</v>
+        <v>1131.8010826107507</v>
       </c>
       <c r="T7" s="26">
         <f>S7/Data!A4</f>
-        <v>0.10048064007652545</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10047949952155101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -15753,31 +15756,31 @@
       </c>
       <c r="N8" s="28">
         <f>SUM($C8:M8)*(CL!M$47-1)</f>
-        <v>0.85423050282336832</v>
+        <v>0.84074717856846548</v>
       </c>
       <c r="O8" s="28"/>
       <c r="P8" s="27">
-        <f>SUM(C8:N8)</f>
-        <v>1187.8542305028234</v>
+        <f t="shared" si="2"/>
+        <v>1187</v>
       </c>
       <c r="Q8" s="26">
         <f>P8/Data!A5</f>
-        <v>9.9451961696485541E-2</v>
+        <v>9.9380442062960483E-2</v>
       </c>
       <c r="R8" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.84074717856856296</v>
       </c>
       <c r="S8" s="21">
         <f t="shared" si="1"/>
-        <v>1187.8542305028234</v>
+        <v>1187.8407471785686</v>
       </c>
       <c r="T8" s="26">
         <f>S8/Data!A5</f>
-        <v>9.9451961696485541E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9450832818031534E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -15828,11 +15831,11 @@
       </c>
       <c r="N9" s="28">
         <f>SUM($C9:M9)*(CL!M$47-1)</f>
-        <v>0.91971910918977651</v>
+        <v>0.90520210127253486</v>
       </c>
       <c r="O9" s="28"/>
       <c r="P9" s="27">
-        <f>SUM(C9:M9)</f>
+        <f t="shared" si="2"/>
         <v>1278</v>
       </c>
       <c r="Q9" s="26">
@@ -15841,18 +15844,18 @@
       </c>
       <c r="R9" s="21">
         <f t="shared" si="0"/>
-        <v>0.91971910918982758</v>
+        <v>0.90520210127260725</v>
       </c>
       <c r="S9" s="21">
         <f t="shared" si="1"/>
-        <v>1278.9197191091898</v>
+        <v>1278.9052021012726</v>
       </c>
       <c r="T9" s="26">
         <f>S9/Data!A6</f>
-        <v>9.8911037827470211E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.8909915089038875E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -15899,11 +15902,11 @@
       </c>
       <c r="M10" s="28">
         <f>SUM($C10:L10)*(CL!L$47-1)</f>
-        <v>1.2917019998302752</v>
+        <v>1.2867943126467232</v>
       </c>
       <c r="N10" s="28">
         <f>SUM($C10:M10)*(CL!M$47-1)</f>
-        <v>0.99693212060350023</v>
+        <v>0.9811928928614253</v>
       </c>
       <c r="O10" s="28"/>
       <c r="P10" s="27">
@@ -15916,18 +15919,18 @@
       </c>
       <c r="R10" s="21">
         <f t="shared" si="0"/>
-        <v>2.288634120433926</v>
+        <v>2.2679872055080068</v>
       </c>
       <c r="S10" s="21">
         <f t="shared" si="1"/>
-        <v>1386.2886341204339</v>
+        <v>1386.267987205508</v>
       </c>
       <c r="T10" s="26">
         <f>S10/Data!A7</f>
-        <v>0.10055771319602741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10055621552339387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -15970,15 +15973,15 @@
       </c>
       <c r="L11" s="28">
         <f>SUM($C11:K11)*(CL!K$47-1)</f>
-        <v>3.0269164001141462</v>
+        <v>3.0361483351406982</v>
       </c>
       <c r="M11" s="28">
         <f>SUM($C11:L11)*(CL!L$47-1)</f>
-        <v>1.3206597526934214</v>
+        <v>1.3156506270716648</v>
       </c>
       <c r="N11" s="28">
         <f>SUM($C11:M11)*(CL!M$47-1)</f>
-        <v>1.0192816361833799</v>
+        <v>1.0031961068558133</v>
       </c>
       <c r="O11" s="28"/>
       <c r="P11" s="27">
@@ -15991,18 +15994,18 @@
       </c>
       <c r="R11" s="21">
         <f t="shared" si="0"/>
-        <v>5.366857788991183</v>
+        <v>5.3549950690680816</v>
       </c>
       <c r="S11" s="21">
         <f t="shared" si="1"/>
-        <v>1417.3668577889912</v>
+        <v>1417.3549950690681</v>
       </c>
       <c r="T11" s="26">
         <f>S11/Data!A8</f>
-        <v>9.6907347038765981E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.6906535968075219E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -16041,19 +16044,19 @@
       </c>
       <c r="K12" s="28">
         <f>SUM($C12:J12)*(CL!J$47-1)</f>
-        <v>7.0558836045420277</v>
+        <v>7.1260641219680467</v>
       </c>
       <c r="L12" s="28">
         <f>SUM($C12:K12)*(CL!K$47-1)</f>
-        <v>3.0870600362347425</v>
+        <v>3.0966263115981869</v>
       </c>
       <c r="M12" s="28">
         <f>SUM($C12:L12)*(CL!L$47-1)</f>
-        <v>1.3469007415764029</v>
+        <v>1.341857478275011</v>
       </c>
       <c r="N12" s="28">
         <f>SUM($C12:M12)*(CL!M$47-1)</f>
-        <v>1.0395343606486829</v>
+        <v>1.0231790799636995</v>
       </c>
       <c r="O12" s="28"/>
       <c r="P12" s="27">
@@ -16066,18 +16069,18 @@
       </c>
       <c r="R12" s="21">
         <f t="shared" si="0"/>
-        <v>12.529378743001871</v>
+        <v>12.587726991804857</v>
       </c>
       <c r="S12" s="21">
         <f t="shared" si="1"/>
-        <v>1445.5293787430019</v>
+        <v>1445.5877269918049</v>
       </c>
       <c r="T12" s="26">
         <f>S12/Data!A9</f>
-        <v>0.1053900101154128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10539426414346784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -16112,23 +16115,23 @@
       </c>
       <c r="J13" s="28">
         <f>SUM($C13:I13)*(CL!I$47-1)</f>
-        <v>16.568467114663413</v>
+        <v>16.848312403297022</v>
       </c>
       <c r="K13" s="28">
         <f>SUM($C13:J13)*(CL!J$47-1)</f>
-        <v>7.2950276734967332</v>
+        <v>7.3689784321116765</v>
       </c>
       <c r="L13" s="28">
         <f>SUM($C13:K13)*(CL!K$47-1)</f>
-        <v>3.1916893271285725</v>
+        <v>3.2021845596548633</v>
       </c>
       <c r="M13" s="28">
         <f>SUM($C13:L13)*(CL!L$47-1)</f>
-        <v>1.392551058655237</v>
+        <v>1.3875989111427558</v>
       </c>
       <c r="N13" s="28">
         <f>SUM($C13:M13)*(CL!M$47-1)</f>
-        <v>1.0747671522814313</v>
+        <v>1.0580573572439402</v>
       </c>
       <c r="O13" s="28"/>
       <c r="P13" s="27">
@@ -16141,18 +16144,18 @@
       </c>
       <c r="R13" s="21">
         <f t="shared" si="0"/>
-        <v>29.522502326225549</v>
+        <v>29.865131663450256</v>
       </c>
       <c r="S13" s="21">
         <f t="shared" si="1"/>
-        <v>1494.5225023262255</v>
+        <v>1494.8651316634503</v>
       </c>
       <c r="T13" s="26">
         <f>S13/Data!A10</f>
-        <v>9.5643318976463942E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.5665245850726374E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>10</v>
       </c>
@@ -16183,27 +16186,27 @@
       </c>
       <c r="I14" s="28">
         <f>SUM($C14:H14)*(CL!H$47-1)</f>
-        <v>35.640050001574508</v>
+        <v>36.49119954307362</v>
       </c>
       <c r="J14" s="28">
         <f>SUM($C14:I14)*(CL!I$47-1)</f>
-        <v>15.919752817566041</v>
+        <v>16.198429861567419</v>
       </c>
       <c r="K14" s="28">
         <f>SUM($C14:J14)*(CL!J$47-1)</f>
-        <v>7.009401446473591</v>
+        <v>7.0847380691140014</v>
       </c>
       <c r="L14" s="28">
         <f>SUM($C14:K14)*(CL!K$47-1)</f>
-        <v>3.0667233611117788</v>
+        <v>3.0786681034720735</v>
       </c>
       <c r="M14" s="28">
         <f>SUM($C14:L14)*(CL!L$47-1)</f>
-        <v>1.338027741867033</v>
+        <v>1.3340756688328486</v>
       </c>
       <c r="N14" s="28">
         <f>SUM($C14:M14)*(CL!M$47-1)</f>
-        <v>1.0326862033975999</v>
+        <v>1.0172453763070934</v>
       </c>
       <c r="O14" s="28"/>
       <c r="P14" s="27">
@@ -16216,18 +16219,18 @@
       </c>
       <c r="R14" s="21">
         <f t="shared" si="0"/>
-        <v>64.006641571990713</v>
+        <v>65.204356622367186</v>
       </c>
       <c r="S14" s="21">
         <f t="shared" si="1"/>
-        <v>1436.0066415719907</v>
+        <v>1437.2043566223672</v>
       </c>
       <c r="T14" s="26">
         <f>S14/Data!A11</f>
-        <v>9.8201917634684444E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.828382388171833E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>11</v>
       </c>
@@ -16258,27 +16261,27 @@
       </c>
       <c r="I15" s="28">
         <f>SUM($C15:H15)*(CL!H$47-1)</f>
-        <v>40.011372281329798</v>
+        <v>40.966916989333839</v>
       </c>
       <c r="J15" s="28">
         <f>SUM($C15:I15)*(CL!I$47-1)</f>
-        <v>17.872341834039055</v>
+        <v>18.185199165981832</v>
       </c>
       <c r="K15" s="28">
         <f>SUM($C15:J15)*(CL!J$47-1)</f>
-        <v>7.8691183298496066</v>
+        <v>7.953695137535072</v>
       </c>
       <c r="L15" s="28">
         <f>SUM($C15:K15)*(CL!K$47-1)</f>
-        <v>3.4428630173042287</v>
+        <v>3.4562728058247609</v>
       </c>
       <c r="M15" s="28">
         <f>SUM($C15:L15)*(CL!L$47-1)</f>
-        <v>1.502139477925081</v>
+        <v>1.4977026753547484</v>
       </c>
       <c r="N15" s="28">
         <f>SUM($C15:M15)*(CL!M$47-1)</f>
-        <v>1.1593471987864505</v>
+        <v>1.1420125238625205</v>
       </c>
       <c r="O15" s="28"/>
       <c r="P15" s="27">
@@ -16291,18 +16294,18 @@
       </c>
       <c r="R15" s="21">
         <f t="shared" si="0"/>
-        <v>163.13568252179016</v>
+        <v>164.48029968044852</v>
       </c>
       <c r="S15" s="21">
         <f t="shared" si="1"/>
-        <v>1612.1356825217902</v>
+        <v>1613.4802996804485</v>
       </c>
       <c r="T15" s="26">
         <f>S15/Data!A12</f>
-        <v>9.7877219508335264E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.7958854937796644E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>12</v>
       </c>
@@ -16333,27 +16336,27 @@
       </c>
       <c r="I16" s="28">
         <f>SUM($C16:H16)*(CL!H$47-1)</f>
-        <v>36.621284385209435</v>
+        <v>37.495867597415995</v>
       </c>
       <c r="J16" s="28">
         <f>SUM($C16:I16)*(CL!I$47-1)</f>
-        <v>16.358052114084273</v>
+        <v>16.644401636028075</v>
       </c>
       <c r="K16" s="28">
         <f>SUM($C16:J16)*(CL!J$47-1)</f>
-        <v>7.2023828173660682</v>
+        <v>7.2797935921044257</v>
       </c>
       <c r="L16" s="28">
         <f>SUM($C16:K16)*(CL!K$47-1)</f>
-        <v>3.1511557456591182</v>
+        <v>3.1634293481615017</v>
       </c>
       <c r="M16" s="28">
         <f>SUM($C16:L16)*(CL!L$47-1)</f>
-        <v>1.3748660410983562</v>
+        <v>1.3708051604180655</v>
       </c>
       <c r="N16" s="28">
         <f>SUM($C16:M16)*(CL!M$47-1)</f>
-        <v>1.0611179034158198</v>
+        <v>1.0452519627114916</v>
       </c>
       <c r="O16" s="28"/>
       <c r="P16" s="27">
@@ -16366,18 +16369,18 @@
       </c>
       <c r="R16" s="21">
         <f t="shared" si="0"/>
-        <v>328.54247532576755</v>
+        <v>329.77316561577413</v>
       </c>
       <c r="S16" s="21">
         <f t="shared" si="1"/>
-        <v>1475.5424753257676</v>
+        <v>1476.7731656157741</v>
       </c>
       <c r="T16" s="26">
         <f>S16/Data!A13</f>
-        <v>9.276640735104788E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.2843780058831524E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>13</v>
       </c>
@@ -16408,27 +16411,27 @@
       </c>
       <c r="I17" s="28">
         <f>SUM($C17:H17)*(CL!H$47-1)</f>
-        <v>38.303864269941577</v>
+        <v>39.218630565431191</v>
       </c>
       <c r="J17" s="28">
         <f>SUM($C17:I17)*(CL!I$47-1)</f>
-        <v>17.109629506920736</v>
+        <v>17.409135474732391</v>
       </c>
       <c r="K17" s="28">
         <f>SUM($C17:J17)*(CL!J$47-1)</f>
-        <v>7.5332992408090158</v>
+        <v>7.6142666852443242</v>
       </c>
       <c r="L17" s="28">
         <f>SUM($C17:K17)*(CL!K$47-1)</f>
-        <v>3.2959368848330777</v>
+        <v>3.3087744030208448</v>
       </c>
       <c r="M17" s="28">
         <f>SUM($C17:L17)*(CL!L$47-1)</f>
-        <v>1.4380348235097051</v>
+        <v>1.4337873640061516</v>
       </c>
       <c r="N17" s="28">
         <f>SUM($C17:M17)*(CL!M$47-1)</f>
-        <v>1.1098713993564948</v>
+        <v>1.0932764915192648</v>
       </c>
       <c r="O17" s="28"/>
       <c r="P17" s="27">
@@ -16441,18 +16444,18 @@
       </c>
       <c r="R17" s="21">
         <f t="shared" si="0"/>
-        <v>705.33687767211836</v>
+        <v>706.6241125307015</v>
       </c>
       <c r="S17" s="21">
         <f t="shared" si="1"/>
-        <v>1543.3368776721184</v>
+        <v>1544.6241125307015</v>
       </c>
       <c r="T17" s="26">
         <f>S17/Data!A14</f>
-        <v>9.0491754774090785E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.0567230286174236E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>14</v>
       </c>
@@ -16483,27 +16486,27 @@
       </c>
       <c r="I18" s="28">
         <f>SUM($C18:H18)*(CL!H$47-1)</f>
-        <v>27.460658531999417</v>
+        <v>28.116469253862668</v>
       </c>
       <c r="J18" s="28">
         <f>SUM($C18:I18)*(CL!I$47-1)</f>
-        <v>12.266169548519249</v>
+        <v>12.480890210967557</v>
       </c>
       <c r="K18" s="28">
         <f>SUM($C18:J18)*(CL!J$47-1)</f>
-        <v>5.4007438156458969</v>
+        <v>5.4587906834025661</v>
       </c>
       <c r="L18" s="28">
         <f>SUM($C18:K18)*(CL!K$47-1)</f>
-        <v>2.3629103502345163</v>
+        <v>2.3721137742250633</v>
       </c>
       <c r="M18" s="28">
         <f>SUM($C18:L18)*(CL!L$47-1)</f>
-        <v>1.0309503753257812</v>
+        <v>1.0279053030523007</v>
       </c>
       <c r="N18" s="28">
         <f>SUM($C18:M18)*(CL!M$47-1)</f>
-        <v>0.79568471988550982</v>
+        <v>0.78378756260976801</v>
       </c>
       <c r="O18" s="28"/>
       <c r="P18" s="27">
@@ -16516,18 +16519,18 @@
       </c>
       <c r="R18" s="21">
         <f t="shared" si="0"/>
-        <v>829.44311756435809</v>
+        <v>830.36595701086799</v>
       </c>
       <c r="S18" s="21">
         <f t="shared" si="1"/>
-        <v>1106.4431175643581</v>
+        <v>1107.365957010868</v>
       </c>
       <c r="T18" s="26">
         <f>S18/Data!A15</f>
-        <v>6.5497135947691826E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>6.5551764459294851E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>15</v>
       </c>
@@ -16558,27 +16561,27 @@
       </c>
       <c r="I19" s="28">
         <f>SUM($C19:H19)*(CL!H$47-1)</f>
-        <v>18.259458951677889</v>
+        <v>18.695528208428534</v>
       </c>
       <c r="J19" s="28">
         <f>SUM($C19:I19)*(CL!I$47-1)</f>
-        <v>8.1561634475923466</v>
+        <v>8.298937996042568</v>
       </c>
       <c r="K19" s="28">
         <f>SUM($C19:J19)*(CL!J$47-1)</f>
-        <v>3.5911250961225334</v>
+        <v>3.6297222913733784</v>
       </c>
       <c r="L19" s="28">
         <f>SUM($C19:K19)*(CL!K$47-1)</f>
-        <v>1.5711737027837598</v>
+        <v>1.5772933500010489</v>
       </c>
       <c r="M19" s="28">
         <f>SUM($C19:L19)*(CL!L$47-1)</f>
-        <v>0.68551145769290456</v>
+        <v>0.68348669298750886</v>
       </c>
       <c r="N19" s="28">
         <f>SUM($C19:M19)*(CL!M$47-1)</f>
-        <v>0.52907589467662142</v>
+        <v>0.52116509914107634</v>
       </c>
       <c r="O19" s="28"/>
       <c r="P19" s="27">
@@ -16591,18 +16594,18 @@
       </c>
       <c r="R19" s="21">
         <f t="shared" si="0"/>
-        <v>719.70896575516031</v>
+        <v>720.3225908425884</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="1"/>
-        <v>735.70896575516031</v>
+        <v>736.3225908425884</v>
       </c>
       <c r="T19" s="62">
         <f>S19/Data!A16</f>
-        <v>4.1464744730607017E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4.1499328796854446E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -16623,7 +16626,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -16643,19 +16646,19 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="25">
         <f>SUM(R4:R19)</f>
-        <v>2860.8008524990273</v>
+        <v>2871.6244870629271</v>
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -16675,7 +16678,7 @@
       <c r="S25" s="21"/>
       <c r="T25" s="23"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -16695,7 +16698,7 @@
       <c r="S26" s="21"/>
       <c r="T26" s="23"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -16715,7 +16718,7 @@
       <c r="S27" s="21"/>
       <c r="T27" s="23"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -16735,7 +16738,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="23"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -16755,7 +16758,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="23"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -16775,7 +16778,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="23"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -16795,7 +16798,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="23"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -16815,7 +16818,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="23"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="24"/>
@@ -16835,7 +16838,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="23"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="24"/>
@@ -16855,7 +16858,7 @@
       <c r="S34" s="21"/>
       <c r="T34" s="23"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -16875,7 +16878,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="23"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -16895,7 +16898,7 @@
       <c r="S36" s="21"/>
       <c r="T36" s="23"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="24"/>
@@ -16915,7 +16918,7 @@
       <c r="S37" s="21"/>
       <c r="T37" s="23"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -16935,7 +16938,7 @@
       <c r="S38" s="21"/>
       <c r="T38" s="23"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="24"/>
@@ -16955,7 +16958,7 @@
       <c r="S39" s="21"/>
       <c r="T39" s="23"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -16975,13 +16978,13 @@
       <c r="S40" s="21"/>
       <c r="T40" s="23"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="P41" s="1"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="23"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="22"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="21"/>
@@ -16990,57 +16993,57 @@
       <c r="T42" s="19"/>
       <c r="U42" s="19"/>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" t="str">
-        <f t="shared" ref="C60:O60" si="2">IF(C42&gt;0,C21/C42,"")</f>
+        <f t="shared" ref="C60:O60" si="3">IF(C42&gt;0,C21/C42,"")</f>
         <v/>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -17070,9 +17073,9 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>36</v>
       </c>
@@ -17089,7 +17092,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="24">
         <v>156</v>
       </c>
@@ -17137,9 +17140,9 @@
         <f t="shared" ref="Q2:Q17" si="0">S2-P2</f>
         <v>0</v>
       </c>
-      <c r="R2" s="20" t="e">
+      <c r="R2" s="20">
         <f>Q2/'CL IBNR'!R4</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S2" s="32">
         <f t="shared" ref="S2:S17" si="1">SUM(C2:O2)</f>
@@ -17147,10 +17150,10 @@
       </c>
       <c r="T2" s="20">
         <f>S2/'CL IBNR'!S4</f>
-        <v>0.99928086251588144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.9992922054740373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C3" s="24">
         <v>158</v>
       </c>
@@ -17198,9 +17201,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R3" s="20" t="e">
+      <c r="R3" s="20">
         <f>Q3/'CL IBNR'!R5</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S3" s="32">
         <f t="shared" si="1"/>
@@ -17208,10 +17211,10 @@
       </c>
       <c r="T3" s="20">
         <f>S3/'CL IBNR'!S5</f>
-        <v>0.99928086251588144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.9992922054740373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="24">
         <v>137</v>
       </c>
@@ -17259,9 +17262,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="20" t="e">
+      <c r="R4" s="20">
         <f>Q4/'CL IBNR'!R6</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S4" s="32">
         <f t="shared" si="1"/>
@@ -17269,10 +17272,10 @@
       </c>
       <c r="T4" s="20">
         <f>S4/'CL IBNR'!S6</f>
-        <v>0.99928086251588144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.9992922054740373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C5" s="24">
         <v>123</v>
       </c>
@@ -17320,9 +17323,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="20" t="e">
+      <c r="R5" s="20">
         <f>Q5/'CL IBNR'!R7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S5" s="32">
         <f t="shared" si="1"/>
@@ -17330,10 +17333,10 @@
       </c>
       <c r="T5" s="20">
         <f>S5/'CL IBNR'!S7</f>
-        <v>0.99928086251588133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99929220547403719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="24">
         <v>114</v>
       </c>
@@ -17381,9 +17384,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="20" t="e">
+      <c r="R6" s="20">
         <f>Q6/'CL IBNR'!R8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S6" s="32">
         <f t="shared" si="1"/>
@@ -17391,10 +17394,10 @@
       </c>
       <c r="T6" s="20">
         <f>S6/'CL IBNR'!S8</f>
-        <v>0.99928086251588144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99929220547403719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="24">
         <v>100</v>
       </c>
@@ -17452,10 +17455,10 @@
       </c>
       <c r="T7" s="20">
         <f>S7/'CL IBNR'!S9</f>
-        <v>0.99928086251588144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99929220547403719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="24">
         <v>96</v>
       </c>
@@ -17505,7 +17508,7 @@
       </c>
       <c r="R8" s="20">
         <f>Q8/'CL IBNR'!R10</f>
-        <v>0.43694183839678119</v>
+        <v>0.44091959494807198</v>
       </c>
       <c r="S8" s="32">
         <f t="shared" si="1"/>
@@ -17513,10 +17516,10 @@
       </c>
       <c r="T8" s="20">
         <f>S8/'CL IBNR'!S10</f>
-        <v>0.99907044313231963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.9990853231718464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="24">
         <v>67</v>
       </c>
@@ -17566,7 +17569,7 @@
       </c>
       <c r="R9" s="20">
         <f>Q9/'CL IBNR'!R11</f>
-        <v>0.18632876802721685</v>
+        <v>0.18674153516522807</v>
       </c>
       <c r="S9" s="32">
         <f t="shared" si="1"/>
@@ -17574,10 +17577,10 @@
       </c>
       <c r="T9" s="20">
         <f>S9/'CL IBNR'!S11</f>
-        <v>0.99691903492381417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99692737875534432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C10" s="24">
         <v>63</v>
       </c>
@@ -17627,7 +17630,7 @@
       </c>
       <c r="R10" s="20">
         <f>Q10/'CL IBNR'!R12</f>
-        <v>0.63849933536954506</v>
+        <v>0.63553968124732441</v>
       </c>
       <c r="S10" s="32">
         <f t="shared" si="1"/>
@@ -17635,10 +17638,10 @@
       </c>
       <c r="T10" s="20">
         <f>S10/'CL IBNR'!S12</f>
-        <v>0.99686662975543217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99682639323360078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="24">
         <v>60</v>
       </c>
@@ -17688,7 +17691,7 @@
       </c>
       <c r="R11" s="20">
         <f>Q11/'CL IBNR'!R13</f>
-        <v>1.2532812967934635</v>
+        <v>1.2389029593759195</v>
       </c>
       <c r="S11" s="32">
         <f t="shared" si="1"/>
@@ -17696,10 +17699,10 @@
       </c>
       <c r="T11" s="20">
         <f>S11/'CL IBNR'!S13</f>
-        <v>1.0050032687110002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.0047729177605542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="24">
         <v>37</v>
       </c>
@@ -17749,7 +17752,7 @@
       </c>
       <c r="R12" s="20">
         <f>Q12/'CL IBNR'!R14</f>
-        <v>1.2654936739478231</v>
+        <v>1.2422482821065732</v>
       </c>
       <c r="S12" s="32">
         <f t="shared" si="1"/>
@@ -17757,10 +17760,10 @@
       </c>
       <c r="T12" s="20">
         <f>S12/'CL IBNR'!S14</f>
-        <v>1.0118337603295531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.0109905340217273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="24">
         <v>31</v>
       </c>
@@ -17810,7 +17813,7 @@
       </c>
       <c r="R13" s="20">
         <f>Q13/'CL IBNR'!R15</f>
-        <v>1.4282589584217911</v>
+        <v>1.4165830221167592</v>
       </c>
       <c r="S13" s="32">
         <f t="shared" si="1"/>
@@ -17818,10 +17821,10 @@
       </c>
       <c r="T13" s="20">
         <f>S13/'CL IBNR'!S15</f>
-        <v>1.0433364996728589</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.0424670201012816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="24">
         <v>30</v>
       </c>
@@ -17871,7 +17874,7 @@
       </c>
       <c r="R14" s="20">
         <f>Q14/'CL IBNR'!R16</f>
-        <v>1.3301172080312933</v>
+        <v>1.3251533040415975</v>
       </c>
       <c r="S14" s="32">
         <f t="shared" si="1"/>
@@ -17879,7 +17882,7 @@
       </c>
       <c r="T14" s="20">
         <f>S14/'CL IBNR'!S16</f>
-        <v>1.0735034920972284</v>
+        <v>1.0726088724259255</v>
       </c>
       <c r="U14" s="34" t="s">
         <v>59</v>
@@ -17891,7 +17894,7 @@
       <c r="Z14" s="34"/>
       <c r="AA14" s="34"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="24">
         <v>38</v>
       </c>
@@ -17941,7 +17944,7 @@
       </c>
       <c r="R15" s="20">
         <f>Q15/'CL IBNR'!R17</f>
-        <v>1.2320353968560847</v>
+        <v>1.2297910368325331</v>
       </c>
       <c r="S15" s="32">
         <f t="shared" si="1"/>
@@ -17949,7 +17952,7 @@
       </c>
       <c r="T15" s="20">
         <f>S15/'CL IBNR'!S17</f>
-        <v>1.1060449761135378</v>
+        <v>1.1051232375255771</v>
       </c>
       <c r="U15" s="34" t="s">
         <v>58</v>
@@ -17961,7 +17964,7 @@
       <c r="Z15" s="34"/>
       <c r="AA15" s="34"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="24">
         <v>18</v>
       </c>
@@ -18011,7 +18014,7 @@
       </c>
       <c r="R16" s="20">
         <f>Q16/'CL IBNR'!R18</f>
-        <v>1.6263924209309368</v>
+        <v>1.6245849057397521</v>
       </c>
       <c r="S16" s="32">
         <f t="shared" si="1"/>
@@ -18019,10 +18022,10 @@
       </c>
       <c r="T16" s="20">
         <f>S16/'CL IBNR'!S18</f>
-        <v>1.4695739656091458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.468349274876654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="24">
         <v>16</v>
       </c>
@@ -18072,7 +18075,7 @@
       </c>
       <c r="R17" s="20">
         <f>Q17/'CL IBNR'!R19</f>
-        <v>2.452380175850748</v>
+        <v>2.4502910535339635</v>
       </c>
       <c r="S17" s="32">
         <f t="shared" si="1"/>
@@ -18080,16 +18083,16 @@
       </c>
       <c r="T17" s="20">
         <f>S17/'CL IBNR'!S19</f>
-        <v>2.4207942038220405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2.4187767999376018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="P18" s="1"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="20"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
         <v>43</v>
       </c>
@@ -18100,24 +18103,24 @@
       </c>
       <c r="R19" s="20">
         <f>Q19/'CL IBNR'!R21</f>
-        <v>1.671210352102489</v>
+        <v>1.6649112798484198</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="33">
         <f>AVERAGE(T2:T17)</f>
-        <v>1.1324144655788886</v>
+        <v>1.1319800615408961</v>
       </c>
       <c r="U19" s="33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="N24">
         <f>IF('CL IBNR'!N8&gt;0,N6/'CL IBNR'!N8,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M25">
         <f>IF('CL IBNR'!M9&gt;0,M7/'CL IBNR'!M9,"")</f>
         <v>1</v>
@@ -18127,28 +18130,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L26">
         <f>IF('CL IBNR'!L10&gt;0,L8/'CL IBNR'!L10,"")</f>
         <v>1</v>
       </c>
       <c r="M26">
         <f>IF('CL IBNR'!M10&gt;0,M8/'CL IBNR'!M10,"")</f>
-        <v>0.77417237112847714</v>
+        <v>0.77712497651871437</v>
       </c>
       <c r="N26">
         <f>IF('CL IBNR'!N10&gt;0,N8/'CL IBNR'!N10,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K27">
         <f>IF('CL IBNR'!K11&gt;0,K9/'CL IBNR'!K11,"")</f>
         <v>1</v>
       </c>
       <c r="L27">
         <f>IF('CL IBNR'!L11&gt;0,L9/'CL IBNR'!L11,"")</f>
-        <v>0.33036921665966379</v>
+        <v>0.32936467181985002</v>
       </c>
       <c r="M27">
         <f>IF('CL IBNR'!M11&gt;0,M9/'CL IBNR'!M11,"")</f>
@@ -18159,18 +18162,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="J28">
         <f>IF('CL IBNR'!J12&gt;0,J10/'CL IBNR'!J12,"")</f>
         <v>1</v>
       </c>
       <c r="K28">
         <f>IF('CL IBNR'!K12&gt;0,K10/'CL IBNR'!K12,"")</f>
-        <v>0.85035416345837511</v>
+        <v>0.84197951313732289</v>
       </c>
       <c r="L28">
         <f>IF('CL IBNR'!L12&gt;0,L10/'CL IBNR'!L12,"")</f>
-        <v>0.64786559915413267</v>
+        <v>0.64586417563822496</v>
       </c>
       <c r="M28">
         <f>IF('CL IBNR'!M12&gt;0,M10/'CL IBNR'!M12,"")</f>
@@ -18181,63 +18184,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I29">
         <f>IF('CL IBNR'!I13&gt;0,I11/'CL IBNR'!I13,"")</f>
         <v>1</v>
       </c>
       <c r="J29">
         <f>IF('CL IBNR'!J13&gt;0,J11/'CL IBNR'!J13,"")</f>
-        <v>1.2674678867192606</v>
+        <v>1.2464156348318032</v>
       </c>
       <c r="K29">
         <f>IF('CL IBNR'!K13&gt;0,K11/'CL IBNR'!K13,"")</f>
-        <v>0.82247803141286968</v>
+        <v>0.81422412282466428</v>
       </c>
       <c r="L29">
         <f>IF('CL IBNR'!L13&gt;0,L11/'CL IBNR'!L13,"")</f>
-        <v>1.5665685120106247</v>
+        <v>1.5614340481795679</v>
       </c>
       <c r="M29">
         <f>IF('CL IBNR'!M13&gt;0,M11/'CL IBNR'!M13,"")</f>
-        <v>1.4362130476791035</v>
+        <v>1.4413386922831337</v>
       </c>
       <c r="N29">
         <f>IF('CL IBNR'!N13&gt;0,N11/'CL IBNR'!N13,"")</f>
-        <v>1.8608681850338997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1.8902566919525614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H30">
         <f>IF('CL IBNR'!H14&gt;0,H12/'CL IBNR'!H14,"")</f>
         <v>1</v>
       </c>
       <c r="I30">
         <f>IF('CL IBNR'!I14&gt;0,I12/'CL IBNR'!I14,"")</f>
-        <v>1.1784495251309839</v>
+        <v>1.1509624382290826</v>
       </c>
       <c r="J30">
         <f>IF('CL IBNR'!J14&gt;0,J12/'CL IBNR'!J14,"")</f>
-        <v>1.0678557760797645</v>
+        <v>1.0494844343114018</v>
       </c>
       <c r="K30">
         <f>IF('CL IBNR'!K14&gt;0,K12/'CL IBNR'!K14,"")</f>
-        <v>2.2826485431291075</v>
+        <v>2.2583756581985983</v>
       </c>
       <c r="L30">
         <f>IF('CL IBNR'!L14&gt;0,L12/'CL IBNR'!L14,"")</f>
-        <v>0.65216185631916279</v>
+        <v>0.64963157208938227</v>
       </c>
       <c r="M30">
         <f>IF('CL IBNR'!M14&gt;0,M12/'CL IBNR'!M14,"")</f>
-        <v>2.2421059789193265</v>
+        <v>2.2487480058943206</v>
       </c>
       <c r="N30">
         <f>IF('CL IBNR'!N14&gt;0,N12/'CL IBNR'!N14,"")</f>
-        <v>0.96834836827483484</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.98304698481923869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G31">
         <f>IF('CL IBNR'!G15&gt;0,G13/'CL IBNR'!G15,"")</f>
         <v>1</v>
@@ -18248,19 +18251,19 @@
       </c>
       <c r="I31">
         <f>IF('CL IBNR'!I15&gt;0,I13/'CL IBNR'!I15,"")</f>
-        <v>1.4995736606614052</v>
+        <v>1.4645964209516089</v>
       </c>
       <c r="J31">
         <f>IF('CL IBNR'!J15&gt;0,J13/'CL IBNR'!J15,"")</f>
-        <v>1.0630951543134233</v>
+        <v>1.0448057140634663</v>
       </c>
       <c r="K31">
         <f>IF('CL IBNR'!K15&gt;0,K13/'CL IBNR'!K15,"")</f>
-        <v>2.2874227131292884</v>
+        <v>2.2630990613475257</v>
       </c>
       <c r="L31">
         <f>IF('CL IBNR'!L15&gt;0,L13/'CL IBNR'!L15,"")</f>
-        <v>1.7427356156324851</v>
+        <v>1.7359740787499083</v>
       </c>
       <c r="M31">
         <f>IF('CL IBNR'!M15&gt;0,M13/'CL IBNR'!M15,"")</f>
@@ -18268,10 +18271,10 @@
       </c>
       <c r="N31">
         <f>IF('CL IBNR'!N15&gt;0,N13/'CL IBNR'!N15,"")</f>
-        <v>2.5876631289921237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2.626941419042748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F32">
         <f>IF('CL IBNR'!F16&gt;0,F14/'CL IBNR'!F16,"")</f>
         <v>1</v>
@@ -18286,30 +18289,30 @@
       </c>
       <c r="I32">
         <f>IF('CL IBNR'!I16&gt;0,I14/'CL IBNR'!I16,"")</f>
-        <v>1.5291653730915353</v>
+        <v>1.4934979129235886</v>
       </c>
       <c r="J32">
         <f>IF('CL IBNR'!J16&gt;0,J14/'CL IBNR'!J16,"")</f>
-        <v>2.3230149736032462</v>
+        <v>2.2830499305992538</v>
       </c>
       <c r="K32">
         <f>IF('CL IBNR'!K16&gt;0,K14/'CL IBNR'!K16,"")</f>
-        <v>2.082644088819142</v>
+        <v>2.0604979811884796</v>
       </c>
       <c r="L32">
         <f>IF('CL IBNR'!L16&gt;0,L14/'CL IBNR'!L16,"")</f>
-        <v>3.4907827120741572</v>
+        <v>3.4772390306086329</v>
       </c>
       <c r="M32">
         <f>IF('CL IBNR'!M16&gt;0,M14/'CL IBNR'!M16,"")</f>
-        <v>0.72734358847143954</v>
+        <v>0.72949827508310661</v>
       </c>
       <c r="N32">
         <f>IF('CL IBNR'!N16&gt;0,N14/'CL IBNR'!N16,"")</f>
-        <v>2.8272070335848358</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+        <v>2.8701213745800489</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E33">
         <f>IF('CL IBNR'!E17&gt;0,E15/'CL IBNR'!E17,"")</f>
         <v>1</v>
@@ -18328,30 +18331,30 @@
       </c>
       <c r="I33">
         <f>IF('CL IBNR'!I17&gt;0,I15/'CL IBNR'!I17,"")</f>
-        <v>1.9058129353618698</v>
+        <v>1.8613602501548079</v>
       </c>
       <c r="J33">
         <f>IF('CL IBNR'!J17&gt;0,J15/'CL IBNR'!J17,"")</f>
-        <v>2.0456316710915758</v>
+        <v>2.0104387176950276</v>
       </c>
       <c r="K33">
         <f>IF('CL IBNR'!K17&gt;0,K15/'CL IBNR'!K17,"")</f>
-        <v>2.654879271442848</v>
+        <v>2.6266482153505302</v>
       </c>
       <c r="L33">
         <f>IF('CL IBNR'!L17&gt;0,L15/'CL IBNR'!L17,"")</f>
-        <v>2.1238270769722321</v>
+        <v>2.1155869658593649</v>
       </c>
       <c r="M33">
         <f>IF('CL IBNR'!M17&gt;0,M15/'CL IBNR'!M17,"")</f>
-        <v>2.0861803559653183</v>
+        <v>2.0923604680248311</v>
       </c>
       <c r="N33">
         <f>IF('CL IBNR'!N17&gt;0,N15/'CL IBNR'!N17,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D34">
         <f>IF('CL IBNR'!D18&gt;0,D16/'CL IBNR'!D18,"")</f>
         <v>1</v>
@@ -18374,30 +18377,30 @@
       </c>
       <c r="I34">
         <f>IF('CL IBNR'!I18&gt;0,I16/'CL IBNR'!I18,"")</f>
-        <v>2.7675956827997608</v>
+        <v>2.7030420965661981</v>
       </c>
       <c r="J34">
         <f>IF('CL IBNR'!J18&gt;0,J16/'CL IBNR'!J18,"")</f>
-        <v>2.4457512902731358</v>
+        <v>2.4036746973094565</v>
       </c>
       <c r="K34">
         <f>IF('CL IBNR'!K18&gt;0,K16/'CL IBNR'!K18,"")</f>
-        <v>1.8515968061714216</v>
+        <v>1.8319075744019577</v>
       </c>
       <c r="L34">
         <f>IF('CL IBNR'!L18&gt;0,L16/'CL IBNR'!L18,"")</f>
-        <v>4.2320691510820589</v>
+        <v>4.2156493961875254</v>
       </c>
       <c r="M34">
         <f>IF('CL IBNR'!M18&gt;0,M16/'CL IBNR'!M18,"")</f>
-        <v>2.9099363769589761</v>
+        <v>2.9185567883458594</v>
       </c>
       <c r="N34">
         <f>IF('CL IBNR'!N18&gt;0,N16/'CL IBNR'!N18,"")</f>
-        <v>2.5135583856477446</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+        <v>2.551711835462946</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C35">
         <f>IF('CL IBNR'!C19&gt;0,C17/'CL IBNR'!C19,"")</f>
         <v>1</v>
@@ -18424,27 +18427,27 @@
       </c>
       <c r="I35">
         <f>IF('CL IBNR'!I19&gt;0,I17/'CL IBNR'!I19,"")</f>
-        <v>4.7646537737091847</v>
+        <v>4.6535192282386362</v>
       </c>
       <c r="J35">
         <f>IF('CL IBNR'!J19&gt;0,J17/'CL IBNR'!J19,"")</f>
-        <v>5.885119922917843</v>
+        <v>5.783872589828877</v>
       </c>
       <c r="K35">
         <f>IF('CL IBNR'!K19&gt;0,K17/'CL IBNR'!K19,"")</f>
-        <v>5.2908209798970747</v>
+        <v>5.2345602431228881</v>
       </c>
       <c r="L35">
         <f>IF('CL IBNR'!L19&gt;0,L17/'CL IBNR'!L19,"")</f>
-        <v>2.5458674575019407</v>
+        <v>2.5359898968681636</v>
       </c>
       <c r="M35">
         <f>IF('CL IBNR'!M19&gt;0,M17/'CL IBNR'!M19,"")</f>
-        <v>7.2938241132067265</v>
+        <v>7.3154313775226321</v>
       </c>
       <c r="N35">
         <f>IF('CL IBNR'!N19&gt;0,N17/'CL IBNR'!N19,"")</f>
-        <v>9.450440003614359</v>
+        <v>9.5938887854164019</v>
       </c>
     </row>
   </sheetData>

--- a/static/output/Excel/compareLR1-sol2.xlsx
+++ b/static/output/Excel/compareLR1-sol2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/static/output/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738413A-AB13-C64C-9A61-29A42B768D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B43F5C4-EBB0-5F45-80D3-8ECDDB132FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16780" yWindow="1120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="1120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -11565,8 +11565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C99BCE70-44EF-43E8-BB68-6647D6498D54}">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13065,10 +13065,10 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+        <color theme="0"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -15285,7 +15285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFBABBA-C100-4978-A0A6-2554271191E8}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -17069,8 +17069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75932EDF-06EF-4257-9EFC-058F56E43488}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18455,10 +18455,10 @@
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+        <color theme="0"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
